--- a/ESP32_Attendance/attendance.xlsx
+++ b/ESP32_Attendance/attendance.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,170 +424,327 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>UID</t>
+          <t>SNO</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>DEPARTMENT</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TIME</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TEST123</t>
-        </is>
+      <c r="A2" t="n">
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>HARI PRASAD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:43</t>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>08:32:32</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>11e5d51d</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>SATHISH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:01:12</t>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>08:38:39</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>d3e1112e</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>SATHISH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:01:20</t>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>08:38:51</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>11e5d51d</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>HARI PRASAD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:01:26</t>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>08:39:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>11e5d51d</t>
-        </is>
+      <c r="A6" t="n">
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>GURU PRASAD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:01:30</t>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>08:39:12</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>11e5d51d</t>
-        </is>
+      <c r="A7" t="n">
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>VIJAY ANAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:01:34</t>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>08:40:54</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>d3e1112e</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>SATHISH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:01:40</t>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>08:40:58</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>d3e1112e</t>
-        </is>
+      <c r="A9" t="n">
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>HARI PRASAD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:01:50</t>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>08:41:02</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>11e5d51d</t>
-        </is>
+      <c r="A10" t="n">
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>GURU PRASAD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:01:54</t>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>08:41:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HARI PRASAD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>08:44:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HARI PRASAD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>08:53:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HARI PRASAD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>08:54:52</t>
         </is>
       </c>
     </row>
